--- a/Sprint_02/Team4Report.xlsx
+++ b/Sprint_02/Team4Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/817d6ac54b96682b/Desktop/GEDCOM_Team4/Sprint_02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{2DF8CF97-8610-42A8-96CA-282693B3135B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96E5C65E-845C-4B1C-BA6E-37AEC8975071}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{2DF8CF97-8610-42A8-96CA-282693B3135B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9D79C0F-C311-4DB2-BFA0-D308E9D3148C}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="192">
   <si>
     <t>Initials</t>
   </si>
@@ -604,6 +604,18 @@
   <si>
     <t>Yes</t>
   </si>
+  <si>
+    <t>Stay in touch on Slack</t>
+  </si>
+  <si>
+    <t>Aviod late changes</t>
+  </si>
+  <si>
+    <t>Rview code and add error handling</t>
+  </si>
+  <si>
+    <t>Aviod late changes and git merge conflicts</t>
+  </si>
 </sst>
 </file>
 
@@ -727,7 +739,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -762,6 +774,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1041,6 +1059,9 @@
                 <c:pt idx="1">
                   <c:v>44973</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>44987</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1055,6 +1076,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,6 +1851,10 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3164,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3298,7 +3326,7 @@
         <v>163</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3315,7 +3343,7 @@
         <v>163</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3332,7 +3360,7 @@
         <v>163</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3349,7 +3377,7 @@
         <v>163</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3441,7 +3469,7 @@
         <v>164</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3458,7 +3486,7 @@
         <v>164</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3475,7 +3503,7 @@
         <v>164</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3492,7 +3520,7 @@
         <v>164</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3516,7 +3544,7 @@
         <v>165</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3533,7 +3561,7 @@
         <v>165</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3550,7 +3578,7 @@
         <v>165</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3567,7 +3595,7 @@
         <v>165</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3659,7 +3687,7 @@
         <v>173</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3676,7 +3704,7 @@
         <v>173</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3693,7 +3721,7 @@
         <v>173</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3710,7 +3738,7 @@
         <v>173</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8928,7 +8956,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9016,8 +9044,25 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="F4" s="5"/>
+      <c r="A4" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>470</v>
+      </c>
+      <c r="E4">
+        <v>110</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F5" si="0">(D4-D3)/E4*60</f>
+        <v>125.45454545454545</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -13014,8 +13059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13332,11 +13377,15 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
+      <c r="B17" s="24" t="s">
+        <v>188</v>
+      </c>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
+      <c r="B18" s="24" t="s">
+        <v>190</v>
+      </c>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13350,7 +13399,9 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17280,7 +17331,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17330,13 +17381,22 @@
         <v>163</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E2" s="19">
         <v>30</v>
       </c>
       <c r="F2" s="19">
         <v>30</v>
+      </c>
+      <c r="G2" s="26">
+        <v>19</v>
+      </c>
+      <c r="H2" s="26">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17349,14 +17409,23 @@
       <c r="C3" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>181</v>
+      <c r="D3" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="E3" s="19">
         <v>30</v>
       </c>
       <c r="F3" s="19">
         <v>40</v>
+      </c>
+      <c r="G3" s="26">
+        <v>15</v>
+      </c>
+      <c r="H3" s="26">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17369,14 +17438,23 @@
       <c r="C4" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>181</v>
+      <c r="D4" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="E4" s="19">
         <v>40</v>
       </c>
       <c r="F4" s="19">
         <v>100</v>
+      </c>
+      <c r="G4" s="26">
+        <v>12</v>
+      </c>
+      <c r="H4" s="26">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17389,14 +17467,23 @@
       <c r="C5" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>181</v>
+      <c r="D5" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="E5" s="19">
         <v>40</v>
       </c>
       <c r="F5" s="19">
         <v>100</v>
+      </c>
+      <c r="G5" s="26">
+        <v>20</v>
+      </c>
+      <c r="H5" s="26">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17409,14 +17496,23 @@
       <c r="C6" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>181</v>
+      <c r="D6" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="E6" s="19">
         <v>40</v>
       </c>
       <c r="F6" s="19">
         <v>80</v>
+      </c>
+      <c r="G6" s="26">
+        <v>20</v>
+      </c>
+      <c r="H6" s="26">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17429,14 +17525,23 @@
       <c r="C7" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>181</v>
+      <c r="D7" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="E7" s="19">
         <v>40</v>
       </c>
       <c r="F7" s="19">
         <v>80</v>
+      </c>
+      <c r="G7" s="26">
+        <v>20</v>
+      </c>
+      <c r="H7" s="26">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17449,14 +17554,23 @@
       <c r="C8" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>181</v>
+      <c r="D8" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="E8" s="19">
         <v>40</v>
       </c>
       <c r="F8" s="19">
         <v>60</v>
+      </c>
+      <c r="G8" s="26">
+        <v>20</v>
+      </c>
+      <c r="H8" s="26">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17469,14 +17583,23 @@
       <c r="C9" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>181</v>
+      <c r="D9" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="E9" s="19">
         <v>40</v>
       </c>
       <c r="F9" s="19">
         <v>60</v>
+      </c>
+      <c r="G9" s="26">
+        <v>30</v>
+      </c>
+      <c r="H9" s="26">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17485,23 +17608,51 @@
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="32.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18480,11 +18631,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="26" width="10.8203125" customWidth="1"/>
+    <col min="1" max="1" width="13.64453125" customWidth="1"/>
+    <col min="2" max="2" width="28.87890625" customWidth="1"/>
+    <col min="3" max="26" width="10.8203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18516,14 +18671,166 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="27">
+        <v>30</v>
+      </c>
+      <c r="F2" s="27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="27">
+        <v>40</v>
+      </c>
+      <c r="F3" s="27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="27">
+        <v>30</v>
+      </c>
+      <c r="F4" s="27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="27">
+        <v>20</v>
+      </c>
+      <c r="F5" s="27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="27">
+        <v>20</v>
+      </c>
+      <c r="F6" s="27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="27">
+        <v>30</v>
+      </c>
+      <c r="F7" s="27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="27">
+        <v>40</v>
+      </c>
+      <c r="F8" s="27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="27">
+        <v>30</v>
+      </c>
+      <c r="F9" s="27">
+        <v>60</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
